--- a/Entregáveis/ENSAIO.xlsx
+++ b/Entregáveis/ENSAIO.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jotin\Desktop\Bolt Tech\Bolt-Tech\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gui\Desktop\Bolt Tech\Bolt-Tech\Entregáveis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABDEAD5B-F730-48A4-8CB4-01898E5541D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{535DE49A-8214-4336-9C84-AC48BE146615}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="2" xr2:uid="{3FCBBB7F-1FC4-4430-B72E-3E374A0E91DE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{3FCBBB7F-1FC4-4430-B72E-3E374A0E91DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Dados" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="49">
   <si>
     <t>-</t>
   </si>
@@ -308,7 +308,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -348,6 +348,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -741,6 +744,37 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Gráfico de Temperatura</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1310,6 +1344,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Gráfico</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" baseline="0"/>
+              <a:t> de Temperatura</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
@@ -1943,7 +2007,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>DiaXTemp</a:t>
+              <a:t>DiaXTemperatura</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2082,7 +2146,7 @@
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.6999999999999993</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>22</c:v>
@@ -2097,7 +2161,7 @@
                   <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>34</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>22</c:v>
@@ -4561,16 +4625,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>458107</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>21773</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>291420</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>37648</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>297996</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>36059</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>131309</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>51934</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4597,16 +4661,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>568325</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>131761</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>265766</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>45849</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>168275</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>23811</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>44543</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>128399</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4634,15 +4698,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>52294</xdr:colOff>
+      <xdr:colOff>599981</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>164352</xdr:rowOff>
+      <xdr:rowOff>180226</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>672353</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>521540</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>168834</xdr:rowOff>
+      <xdr:rowOff>184708</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4970,15 +5034,15 @@
   <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
@@ -4995,7 +5059,7 @@
       <c r="L1" s="22"/>
       <c r="M1" s="22"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>14</v>
       </c>
@@ -5039,7 +5103,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1999</v>
       </c>
@@ -5083,7 +5147,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>2000</v>
       </c>
@@ -5127,7 +5191,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>2001</v>
       </c>
@@ -5171,7 +5235,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>2002</v>
       </c>
@@ -5212,7 +5276,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>2003</v>
       </c>
@@ -5253,7 +5317,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>2004</v>
       </c>
@@ -5294,7 +5358,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>2005</v>
       </c>
@@ -5335,7 +5399,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2006</v>
       </c>
@@ -5376,7 +5440,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>2007</v>
       </c>
@@ -5417,7 +5481,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>2008</v>
       </c>
@@ -5458,7 +5522,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>2009</v>
       </c>
@@ -5499,7 +5563,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>2010</v>
       </c>
@@ -5540,7 +5604,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>2011</v>
       </c>
@@ -5581,7 +5645,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>2012</v>
       </c>
@@ -5622,7 +5686,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>2013</v>
       </c>
@@ -5663,7 +5727,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>2014</v>
       </c>
@@ -5704,7 +5768,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>2015</v>
       </c>
@@ -5745,7 +5809,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>2016</v>
       </c>
@@ -5786,7 +5850,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>2017</v>
       </c>
@@ -5827,7 +5891,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>2018</v>
       </c>
@@ -5868,7 +5932,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>2019</v>
       </c>
@@ -5927,12 +5991,12 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G1" t="s">
         <v>31</v>
       </c>
@@ -5941,7 +6005,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C2" s="6" t="s">
         <v>19</v>
       </c>
@@ -5965,7 +6029,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C3" s="7">
         <v>18</v>
       </c>
@@ -5986,7 +6050,7 @@
         <v>19.772727272727273</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E4" s="6">
         <v>2</v>
       </c>
@@ -6001,7 +6065,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E5" s="6">
         <v>3</v>
       </c>
@@ -6019,7 +6083,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E6" s="6">
         <v>4</v>
       </c>
@@ -6034,7 +6098,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E7" s="6">
         <v>5</v>
       </c>
@@ -6042,7 +6106,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E8" s="6">
         <v>6</v>
       </c>
@@ -6050,7 +6114,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E9" s="6">
         <v>7</v>
       </c>
@@ -6058,7 +6122,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E10" s="6">
         <v>8</v>
       </c>
@@ -6066,7 +6130,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E11" s="6">
         <v>9</v>
       </c>
@@ -6074,7 +6138,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E12" s="6">
         <v>10</v>
       </c>
@@ -6082,7 +6146,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E13" s="6">
         <v>11</v>
       </c>
@@ -6090,7 +6154,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -6102,7 +6166,7 @@
       <c r="K16" s="12"/>
       <c r="L16" s="12"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>25</v>
       </c>
@@ -6128,7 +6192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>19</v>
       </c>
@@ -6137,7 +6201,7 @@
         <v>18.75</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>18</v>
       </c>
@@ -6146,32 +6210,32 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>19</v>
       </c>
@@ -6186,24 +6250,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF13108C-5B12-4589-BE9F-07D539B44FA3}">
   <dimension ref="A1:U27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="10.36328125" customWidth="1"/>
-    <col min="8" max="8" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="G1" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" s="9">
-        <f>MIN(F3:F13)</f>
-        <v>3</v>
-      </c>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="L1" t="s">
         <v>33</v>
       </c>
@@ -6226,25 +6283,14 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="C2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>20</v>
-      </c>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
       <c r="E2" s="6" t="s">
         <v>21</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" s="19">
-        <f>AVERAGE(H3,H1)</f>
-        <v>8</v>
       </c>
       <c r="I2" s="6"/>
       <c r="K2" s="6" t="s">
@@ -6272,25 +6318,21 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="C3" s="7">
-        <v>18</v>
-      </c>
-      <c r="D3" s="8">
-        <v>33</v>
-      </c>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
       <c r="E3" s="6">
         <v>1</v>
       </c>
       <c r="F3" s="6">
         <v>3</v>
       </c>
-      <c r="G3" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" s="14">
-        <f>_xlfn.QUARTILE.EXC(F3:F13,1)</f>
-        <v>13</v>
+      <c r="H3" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="9">
+        <f>MIN(F3:F13)</f>
+        <v>3</v>
       </c>
       <c r="K3" s="6">
         <v>1</v>
@@ -6319,19 +6361,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
       <c r="E4" s="6">
         <v>2</v>
       </c>
       <c r="F4" s="6">
         <v>15</v>
       </c>
-      <c r="G4" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="H4" s="21">
-        <f>AVERAGE(F3:F13)</f>
-        <v>18.063636363636363</v>
+      <c r="H4" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="19">
+        <f>AVERAGE(I5,I3)</f>
+        <v>8</v>
       </c>
       <c r="K4" s="6">
         <v>2</v>
@@ -6366,19 +6410,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E5" s="6">
         <v>3</v>
       </c>
       <c r="F5" s="6">
         <v>13</v>
       </c>
-      <c r="G5" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="H5" s="21">
-        <f>MEDIAN(F3:F13)</f>
-        <v>22</v>
+      <c r="H5" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" s="14">
+        <f>_xlfn.QUARTILE.EXC(F3:F13,1)</f>
+        <v>13</v>
       </c>
       <c r="K5" s="6">
         <v>3</v>
@@ -6414,19 +6458,19 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E6" s="6">
         <v>4</v>
       </c>
       <c r="F6" s="6">
         <v>13</v>
       </c>
-      <c r="G6" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" s="15">
-        <f>_xlfn.QUARTILE.EXC(F3:F13,3)</f>
-        <v>22</v>
+      <c r="H6" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="21">
+        <f>AVERAGE(F3:F13)</f>
+        <v>18</v>
       </c>
       <c r="K6" s="6">
         <v>4</v>
@@ -6462,19 +6506,19 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E7" s="6">
         <v>5</v>
       </c>
       <c r="F7" s="6">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" s="19">
-        <f>AVERAGE(H8,H6)</f>
-        <v>28</v>
+        <v>10</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" s="21">
+        <f>MEDIAN(F3:F13)</f>
+        <v>22</v>
       </c>
       <c r="K7" s="6">
         <v>5</v>
@@ -6483,7 +6527,7 @@
         <v>22</v>
       </c>
       <c r="M7">
-        <f t="shared" si="0"/>
+        <f>L7+0.6</f>
         <v>22.6</v>
       </c>
       <c r="N7">
@@ -6510,19 +6554,19 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E8" s="6">
         <v>6</v>
       </c>
       <c r="F8" s="6">
         <v>22</v>
       </c>
-      <c r="G8" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" s="9">
-        <f>MAX(F3:F13)</f>
-        <v>34</v>
+      <c r="H8" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" s="15">
+        <f>_xlfn.QUARTILE.EXC(F3:F13,3)</f>
+        <v>22</v>
       </c>
       <c r="K8" s="6">
         <v>6</v>
@@ -6558,12 +6602,19 @@
         <v>8.75</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E9" s="6">
         <v>7</v>
       </c>
       <c r="F9" s="6">
         <v>23</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" s="19">
+        <f>AVERAGE(I10,I8)</f>
+        <v>28</v>
       </c>
       <c r="K9" s="6">
         <v>7</v>
@@ -6598,12 +6649,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E10" s="6">
         <v>8</v>
       </c>
       <c r="F10" s="6">
         <v>22</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="9">
+        <v>34</v>
       </c>
       <c r="K10" s="6">
         <v>8</v>
@@ -6632,7 +6689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E11" s="6">
         <v>9</v>
       </c>
@@ -6666,12 +6723,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E12" s="6">
         <v>10</v>
       </c>
       <c r="F12" s="6">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K12" s="6">
         <v>10</v>
@@ -6700,7 +6757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E13" s="6">
         <v>11</v>
       </c>
@@ -6734,7 +6791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="P14" s="17">
         <v>0</v>
       </c>
@@ -6748,7 +6805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="P15" s="16">
         <f>(P3+P4+P6+P8+P7+P5+P9+P10+P12+P11+P13+P14)</f>
         <v>8</v>
@@ -6766,7 +6823,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -6777,7 +6834,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>25</v>
       </c>
@@ -6791,7 +6848,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>19</v>
       </c>
@@ -6800,7 +6857,7 @@
         <v>18.75</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>18</v>
       </c>
@@ -6809,17 +6866,17 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>21</v>
       </c>
@@ -6828,7 +6885,7 @@
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>18</v>
       </c>
@@ -6845,12 +6902,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>19</v>
       </c>
